--- a/Parts/Raspberry Pi Robot.xlsx
+++ b/Parts/Raspberry Pi Robot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Stuff to Buy" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Products</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>http://external-battery-pack-review.toptenreviews.com/</t>
+  </si>
+  <si>
+    <t>http://42bots.com/tutorials/28byj-48-stepper-motor-with-uln2003-driver-and-arduino-uno/</t>
   </si>
 </sst>
 </file>
@@ -423,8 +426,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -453,15 +464,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -470,12 +472,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -488,8 +484,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -497,6 +508,10 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -504,6 +519,10 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -835,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -846,28 +865,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="18">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -890,20 +909,20 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>3</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>3.31</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <f>C4*B4</f>
         <v>9.93</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -926,20 +945,20 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>0</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>38.950000000000003</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -962,20 +981,20 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="10">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
         <v>11.95</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>11.95</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="1"/>
@@ -1001,20 +1020,20 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
         <v>10.89</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
         <v>10.89</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1037,20 +1056,20 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="10">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
         <v>1.71</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <f t="shared" si="0"/>
         <v>1.71</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1073,20 +1092,20 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
         <v>6.39</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="8">
         <f t="shared" si="0"/>
         <v>6.39</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1109,20 +1128,20 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="10">
-        <v>1</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
         <v>54</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="8">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1151,13 +1170,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="20">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="5" t="s">
@@ -1170,7 +1189,7 @@
         <v>49</v>
       </c>
       <c r="D29" s="4">
-        <f>C29*B29</f>
+        <f t="shared" ref="D29:D35" si="1">C29*B29</f>
         <v>49</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -1178,20 +1197,20 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="7">
         <v>2</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="8">
         <v>14.95</v>
       </c>
-      <c r="D30" s="11">
-        <f>C30*B30</f>
+      <c r="D30" s="8">
+        <f t="shared" si="1"/>
         <v>29.9</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1206,7 +1225,7 @@
         <v>17.5</v>
       </c>
       <c r="D31" s="4">
-        <f>C31*B31</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -1214,20 +1233,20 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="10">
-        <v>1</v>
-      </c>
-      <c r="C32" s="11">
+      <c r="B32" s="7">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8">
         <v>5.33</v>
       </c>
-      <c r="D32" s="11">
-        <f>C32*B32</f>
+      <c r="D32" s="8">
+        <f t="shared" si="1"/>
         <v>5.33</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1242,7 +1261,7 @@
         <v>41.72</v>
       </c>
       <c r="D33" s="4">
-        <f>C33*B33</f>
+        <f t="shared" si="1"/>
         <v>41.72</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -1250,20 +1269,20 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="10">
-        <v>1</v>
-      </c>
-      <c r="C34" s="11">
+      <c r="B34" s="7">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8">
         <v>9.2899999999999991</v>
       </c>
-      <c r="D34" s="11">
-        <f>C34*B34</f>
+      <c r="D34" s="8">
+        <f t="shared" si="1"/>
         <v>9.2899999999999991</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1278,7 +1297,7 @@
         <v>11.75</v>
       </c>
       <c r="D35" s="4">
-        <f>C35*B35</f>
+        <f t="shared" si="1"/>
         <v>11.75</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -1286,81 +1305,83 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="20">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="16"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="20"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20"/>
+      <c r="A47" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="13"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="20"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="13"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A45:E45"/>
     <mergeCell ref="A46:E46"/>
     <mergeCell ref="A47:E47"/>
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="A49:E49"/>
     <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A45:E45"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
